--- a/src/zamestanost.xlsx
+++ b/src/zamestanost.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="13995"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="UKAZATELE" sheetId="2" r:id="rId2"/>
-    <sheet name="METAINFORMACE" sheetId="3" r:id="rId3"/>
+    <sheet name="src" sheetId="4" r:id="rId1"/>
+    <sheet name="DATA" sheetId="1" r:id="rId2"/>
+    <sheet name="UKAZATELE" sheetId="2" r:id="rId3"/>
+    <sheet name="METAINFORMACE" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="282">
   <si>
     <t>Data z Veřejné databáze ČSU</t>
   </si>
@@ -869,6 +870,18 @@
   </si>
   <si>
     <t>Český statistický úřad, Veřejná databáze</t>
+  </si>
+  <si>
+    <t>okres</t>
+  </si>
+  <si>
+    <t>nezamestnanost</t>
+  </si>
+  <si>
+    <t>nezamestnanost_muzi</t>
+  </si>
+  <si>
+    <t>nezamestnanost_zeny</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1133,14 +1146,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1541,10 +1556,1425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>DATA!B9</f>
+        <v>Hlavní město Praha</v>
+      </c>
+      <c r="B2">
+        <f>DATA!C9</f>
+        <v>4.2011423099999998</v>
+      </c>
+      <c r="C2" s="22">
+        <f>DATA!D9</f>
+        <v>4.0226742900000003</v>
+      </c>
+      <c r="D2" s="22">
+        <f>DATA!E9</f>
+        <v>4.37918976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="str">
+        <f>DATA!B11</f>
+        <v>Benešov</v>
+      </c>
+      <c r="B3" s="22">
+        <f>DATA!C11</f>
+        <v>3.7558833699999998</v>
+      </c>
+      <c r="C3" s="22">
+        <f>DATA!D11</f>
+        <v>3.5477884300000002</v>
+      </c>
+      <c r="D3" s="22">
+        <f>DATA!E11</f>
+        <v>3.9730183299999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="str">
+        <f>DATA!B12</f>
+        <v>Beroun</v>
+      </c>
+      <c r="B4" s="22">
+        <f>DATA!C12</f>
+        <v>5.0650810999999996</v>
+      </c>
+      <c r="C4" s="22">
+        <f>DATA!D12</f>
+        <v>4.7322330800000003</v>
+      </c>
+      <c r="D4" s="22">
+        <f>DATA!E12</f>
+        <v>5.40577811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="str">
+        <f>DATA!B13</f>
+        <v>Kladno</v>
+      </c>
+      <c r="B5" s="22">
+        <f>DATA!C13</f>
+        <v>6.9236984000000001</v>
+      </c>
+      <c r="C5" s="22">
+        <f>DATA!D13</f>
+        <v>6.7460761299999996</v>
+      </c>
+      <c r="D5" s="22">
+        <f>DATA!E13</f>
+        <v>7.1041666699999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="str">
+        <f>DATA!B14</f>
+        <v>Kolín</v>
+      </c>
+      <c r="B6" s="22">
+        <f>DATA!C14</f>
+        <v>7.3209111</v>
+      </c>
+      <c r="C6" s="22">
+        <f>DATA!D14</f>
+        <v>6.8160996799999998</v>
+      </c>
+      <c r="D6" s="22">
+        <f>DATA!E14</f>
+        <v>7.8466921100000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="str">
+        <f>DATA!B15</f>
+        <v>Kutná Hora</v>
+      </c>
+      <c r="B7" s="22">
+        <f>DATA!C15</f>
+        <v>6.5595116999999998</v>
+      </c>
+      <c r="C7" s="22">
+        <f>DATA!D15</f>
+        <v>5.9935783100000002</v>
+      </c>
+      <c r="D7" s="22">
+        <f>DATA!E15</f>
+        <v>7.15629311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="str">
+        <f>DATA!B16</f>
+        <v>Mělník</v>
+      </c>
+      <c r="B8" s="22">
+        <f>DATA!C16</f>
+        <v>6.9708400900000003</v>
+      </c>
+      <c r="C8" s="22">
+        <f>DATA!D16</f>
+        <v>6.1441634699999996</v>
+      </c>
+      <c r="D8" s="22">
+        <f>DATA!E16</f>
+        <v>7.82512322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="str">
+        <f>DATA!B17</f>
+        <v>Mladá Boleslav</v>
+      </c>
+      <c r="B9" s="22">
+        <f>DATA!C17</f>
+        <v>3.5259884100000001</v>
+      </c>
+      <c r="C9" s="22">
+        <f>DATA!D17</f>
+        <v>3.0125390400000001</v>
+      </c>
+      <c r="D9" s="22">
+        <f>DATA!E17</f>
+        <v>4.0833374300000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="str">
+        <f>DATA!B18</f>
+        <v>Nymburk</v>
+      </c>
+      <c r="B10" s="22">
+        <f>DATA!C18</f>
+        <v>6.7778985699999996</v>
+      </c>
+      <c r="C10" s="22">
+        <f>DATA!D18</f>
+        <v>6.3765118799999998</v>
+      </c>
+      <c r="D10" s="22">
+        <f>DATA!E18</f>
+        <v>7.1838260900000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="str">
+        <f>DATA!B19</f>
+        <v>Praha-východ</v>
+      </c>
+      <c r="B11" s="22">
+        <f>DATA!C19</f>
+        <v>2.6250023100000002</v>
+      </c>
+      <c r="C11" s="22">
+        <f>DATA!D19</f>
+        <v>2.3366387899999999</v>
+      </c>
+      <c r="D11" s="22">
+        <f>DATA!E19</f>
+        <v>2.9137183699999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="str">
+        <f>DATA!B20</f>
+        <v>Praha-západ</v>
+      </c>
+      <c r="B12" s="22">
+        <f>DATA!C20</f>
+        <v>3.7362712199999999</v>
+      </c>
+      <c r="C12" s="22">
+        <f>DATA!D20</f>
+        <v>3.4730484100000001</v>
+      </c>
+      <c r="D12" s="22">
+        <f>DATA!E20</f>
+        <v>3.9952282299999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="str">
+        <f>DATA!B21</f>
+        <v>Příbram</v>
+      </c>
+      <c r="B13" s="22">
+        <f>DATA!C21</f>
+        <v>7.7793904200000004</v>
+      </c>
+      <c r="C13" s="22">
+        <f>DATA!D21</f>
+        <v>7.9683855899999996</v>
+      </c>
+      <c r="D13" s="22">
+        <f>DATA!E21</f>
+        <v>7.5833333300000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="str">
+        <f>DATA!B22</f>
+        <v>Rakovník</v>
+      </c>
+      <c r="B14" s="22">
+        <f>DATA!C22</f>
+        <v>5.7809578000000004</v>
+      </c>
+      <c r="C14" s="22">
+        <f>DATA!D22</f>
+        <v>5.1167202400000003</v>
+      </c>
+      <c r="D14" s="22">
+        <f>DATA!E22</f>
+        <v>6.484375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="str">
+        <f>DATA!B24</f>
+        <v>České Budějovice</v>
+      </c>
+      <c r="B15" s="22">
+        <f>DATA!C24</f>
+        <v>4.0422279799999998</v>
+      </c>
+      <c r="C15" s="22">
+        <f>DATA!D24</f>
+        <v>3.9809572000000002</v>
+      </c>
+      <c r="D15" s="22">
+        <f>DATA!E24</f>
+        <v>4.1036785599999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="str">
+        <f>DATA!B25</f>
+        <v>Český Krumlov</v>
+      </c>
+      <c r="B16" s="22">
+        <f>DATA!C25</f>
+        <v>7.4039044499999997</v>
+      </c>
+      <c r="C16" s="22">
+        <f>DATA!D25</f>
+        <v>6.9639988700000002</v>
+      </c>
+      <c r="D16" s="22">
+        <f>DATA!E25</f>
+        <v>7.8678559000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="str">
+        <f>DATA!B26</f>
+        <v>Jindřichův Hradec</v>
+      </c>
+      <c r="B17" s="22">
+        <f>DATA!C26</f>
+        <v>4.7132367500000001</v>
+      </c>
+      <c r="C17" s="22">
+        <f>DATA!D26</f>
+        <v>4.7260207200000002</v>
+      </c>
+      <c r="D17" s="22">
+        <f>DATA!E26</f>
+        <v>4.6999764199999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="str">
+        <f>DATA!B27</f>
+        <v>Písek</v>
+      </c>
+      <c r="B18" s="22">
+        <f>DATA!C27</f>
+        <v>4.2876721299999998</v>
+      </c>
+      <c r="C18" s="22">
+        <f>DATA!D27</f>
+        <v>4.21498566</v>
+      </c>
+      <c r="D18" s="22">
+        <f>DATA!E27</f>
+        <v>4.36283186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="str">
+        <f>DATA!B28</f>
+        <v>Prachatice</v>
+      </c>
+      <c r="B19" s="22">
+        <f>DATA!C28</f>
+        <v>4.4083118099999998</v>
+      </c>
+      <c r="C19" s="22">
+        <f>DATA!D28</f>
+        <v>5.1008168200000004</v>
+      </c>
+      <c r="D19" s="22">
+        <f>DATA!E28</f>
+        <v>3.6764261999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="str">
+        <f>DATA!B29</f>
+        <v>Strakonice</v>
+      </c>
+      <c r="B20" s="22">
+        <f>DATA!C29</f>
+        <v>5.8388686500000002</v>
+      </c>
+      <c r="C20" s="22">
+        <f>DATA!D29</f>
+        <v>5.8588995700000002</v>
+      </c>
+      <c r="D20" s="22">
+        <f>DATA!E29</f>
+        <v>5.8179748699999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="str">
+        <f>DATA!B30</f>
+        <v>Tábor</v>
+      </c>
+      <c r="B21" s="22">
+        <f>DATA!C30</f>
+        <v>6.1979221000000004</v>
+      </c>
+      <c r="C21" s="22">
+        <f>DATA!D30</f>
+        <v>5.9755092400000001</v>
+      </c>
+      <c r="D21" s="22">
+        <f>DATA!E30</f>
+        <v>6.4260909000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="str">
+        <f>DATA!B32</f>
+        <v>Domažlice</v>
+      </c>
+      <c r="B22" s="22">
+        <f>DATA!C32</f>
+        <v>5.2983070100000003</v>
+      </c>
+      <c r="C22" s="22">
+        <f>DATA!D32</f>
+        <v>4.9038876399999998</v>
+      </c>
+      <c r="D22" s="22">
+        <f>DATA!E32</f>
+        <v>5.7155898199999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="str">
+        <f>DATA!B33</f>
+        <v>Klatovy</v>
+      </c>
+      <c r="B23" s="22">
+        <f>DATA!C33</f>
+        <v>4.9229256599999998</v>
+      </c>
+      <c r="C23" s="22">
+        <f>DATA!D33</f>
+        <v>5.2095870199999998</v>
+      </c>
+      <c r="D23" s="22">
+        <f>DATA!E33</f>
+        <v>4.6238834899999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="str">
+        <f>DATA!B34</f>
+        <v>Plzeň-město</v>
+      </c>
+      <c r="B24" s="22">
+        <f>DATA!C34</f>
+        <v>4.3141628900000004</v>
+      </c>
+      <c r="C24" s="22">
+        <f>DATA!D34</f>
+        <v>3.8128193499999998</v>
+      </c>
+      <c r="D24" s="22">
+        <f>DATA!E34</f>
+        <v>4.8225764099999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="str">
+        <f>DATA!B35</f>
+        <v>Plzeň-jih</v>
+      </c>
+      <c r="B25" s="22">
+        <f>DATA!C35</f>
+        <v>4.0834120499999997</v>
+      </c>
+      <c r="C25" s="22">
+        <f>DATA!D35</f>
+        <v>3.6830874800000002</v>
+      </c>
+      <c r="D25" s="22">
+        <f>DATA!E35</f>
+        <v>4.5208048200000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="str">
+        <f>DATA!B36</f>
+        <v>Plzeň-sever</v>
+      </c>
+      <c r="B26" s="22">
+        <f>DATA!C36</f>
+        <v>4.2980888799999999</v>
+      </c>
+      <c r="C26" s="22">
+        <f>DATA!D36</f>
+        <v>3.9702517199999998</v>
+      </c>
+      <c r="D26" s="22">
+        <f>DATA!E36</f>
+        <v>4.63827766</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="str">
+        <f>DATA!B37</f>
+        <v>Rokycany</v>
+      </c>
+      <c r="B27" s="22">
+        <f>DATA!C37</f>
+        <v>3.86968588</v>
+      </c>
+      <c r="C27" s="22">
+        <f>DATA!D37</f>
+        <v>3.43107059</v>
+      </c>
+      <c r="D27" s="22">
+        <f>DATA!E37</f>
+        <v>4.3298436100000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="str">
+        <f>DATA!B38</f>
+        <v>Tachov</v>
+      </c>
+      <c r="B28" s="22">
+        <f>DATA!C38</f>
+        <v>6.1044440800000004</v>
+      </c>
+      <c r="C28" s="22">
+        <f>DATA!D38</f>
+        <v>6.34988054</v>
+      </c>
+      <c r="D28" s="22">
+        <f>DATA!E38</f>
+        <v>5.8427220699999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="str">
+        <f>DATA!B40</f>
+        <v>Cheb</v>
+      </c>
+      <c r="B29" s="22">
+        <f>DATA!C40</f>
+        <v>5.4995938300000002</v>
+      </c>
+      <c r="C29" s="22">
+        <f>DATA!D40</f>
+        <v>5.6465656199999996</v>
+      </c>
+      <c r="D29" s="22">
+        <f>DATA!E40</f>
+        <v>5.35036018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="str">
+        <f>DATA!B41</f>
+        <v>Karlovy Vary</v>
+      </c>
+      <c r="B30" s="22">
+        <f>DATA!C41</f>
+        <v>7.0181738899999999</v>
+      </c>
+      <c r="C30" s="22">
+        <f>DATA!D41</f>
+        <v>7.3101472599999999</v>
+      </c>
+      <c r="D30" s="22">
+        <f>DATA!E41</f>
+        <v>6.7138179400000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="str">
+        <f>DATA!B42</f>
+        <v>Sokolov</v>
+      </c>
+      <c r="B31" s="22">
+        <f>DATA!C42</f>
+        <v>8.6928704999999997</v>
+      </c>
+      <c r="C31" s="22">
+        <f>DATA!D42</f>
+        <v>8.3117298799999997</v>
+      </c>
+      <c r="D31" s="22">
+        <f>DATA!E42</f>
+        <v>9.0936627100000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="str">
+        <f>DATA!B44</f>
+        <v>Děčín</v>
+      </c>
+      <c r="B32" s="22">
+        <f>DATA!C44</f>
+        <v>8.7610978900000003</v>
+      </c>
+      <c r="C32" s="22">
+        <f>DATA!D44</f>
+        <v>8.7517346499999995</v>
+      </c>
+      <c r="D32" s="22">
+        <f>DATA!E44</f>
+        <v>8.7708491300000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="str">
+        <f>DATA!B45</f>
+        <v>Chomutov</v>
+      </c>
+      <c r="B33" s="22">
+        <f>DATA!C45</f>
+        <v>9.3914473699999999</v>
+      </c>
+      <c r="C33" s="22">
+        <f>DATA!D45</f>
+        <v>8.8549270100000008</v>
+      </c>
+      <c r="D33" s="22">
+        <f>DATA!E45</f>
+        <v>9.9612403100000009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="str">
+        <f>DATA!B46</f>
+        <v>Litoměřice</v>
+      </c>
+      <c r="B34" s="22">
+        <f>DATA!C46</f>
+        <v>7.3366269600000003</v>
+      </c>
+      <c r="C34" s="22">
+        <f>DATA!D46</f>
+        <v>6.8962940799999997</v>
+      </c>
+      <c r="D34" s="22">
+        <f>DATA!E46</f>
+        <v>7.7996909499999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="str">
+        <f>DATA!B47</f>
+        <v>Louny</v>
+      </c>
+      <c r="B35" s="22">
+        <f>DATA!C47</f>
+        <v>7.9793212000000002</v>
+      </c>
+      <c r="C35" s="22">
+        <f>DATA!D47</f>
+        <v>7.9634376700000002</v>
+      </c>
+      <c r="D35" s="22">
+        <f>DATA!E47</f>
+        <v>7.99602682</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="22" t="str">
+        <f>DATA!B48</f>
+        <v>Most</v>
+      </c>
+      <c r="B36" s="22">
+        <f>DATA!C48</f>
+        <v>11.0993754</v>
+      </c>
+      <c r="C36" s="22">
+        <f>DATA!D48</f>
+        <v>9.9771978699999995</v>
+      </c>
+      <c r="D36" s="22">
+        <f>DATA!E48</f>
+        <v>12.289422070000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="22" t="str">
+        <f>DATA!B49</f>
+        <v>Teplice</v>
+      </c>
+      <c r="B37" s="22">
+        <f>DATA!C49</f>
+        <v>7.3643230700000002</v>
+      </c>
+      <c r="C37" s="22">
+        <f>DATA!D49</f>
+        <v>6.8124872999999999</v>
+      </c>
+      <c r="D37" s="22">
+        <f>DATA!E49</f>
+        <v>7.9498910199999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="str">
+        <f>DATA!B50</f>
+        <v>Ústí nad Labem</v>
+      </c>
+      <c r="B38" s="22">
+        <f>DATA!C50</f>
+        <v>10.387656209999999</v>
+      </c>
+      <c r="C38" s="22">
+        <f>DATA!D50</f>
+        <v>10.745242729999999</v>
+      </c>
+      <c r="D38" s="22">
+        <f>DATA!E50</f>
+        <v>10.023424029999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="22" t="str">
+        <f>DATA!B52</f>
+        <v>Česká Lípa</v>
+      </c>
+      <c r="B39" s="22">
+        <f>DATA!C52</f>
+        <v>5.6519669400000003</v>
+      </c>
+      <c r="C39" s="22">
+        <f>DATA!D52</f>
+        <v>4.9807335500000001</v>
+      </c>
+      <c r="D39" s="22">
+        <f>DATA!E52</f>
+        <v>6.3378638499999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="str">
+        <f>DATA!B53</f>
+        <v>Jablonec nad Nisou</v>
+      </c>
+      <c r="B40" s="22">
+        <f>DATA!C53</f>
+        <v>5.6354509400000001</v>
+      </c>
+      <c r="C40" s="22">
+        <f>DATA!D53</f>
+        <v>5.2613816599999996</v>
+      </c>
+      <c r="D40" s="22">
+        <f>DATA!E53</f>
+        <v>6.0132947000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="22" t="str">
+        <f>DATA!B54</f>
+        <v>Liberec</v>
+      </c>
+      <c r="B41" s="22">
+        <f>DATA!C54</f>
+        <v>7.0887105999999998</v>
+      </c>
+      <c r="C41" s="22">
+        <f>DATA!D54</f>
+        <v>6.5243303900000003</v>
+      </c>
+      <c r="D41" s="22">
+        <f>DATA!E54</f>
+        <v>7.6636014599999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="22" t="str">
+        <f>DATA!B55</f>
+        <v>Semily</v>
+      </c>
+      <c r="B42" s="22">
+        <f>DATA!C55</f>
+        <v>6.57783462</v>
+      </c>
+      <c r="C42" s="22">
+        <f>DATA!D55</f>
+        <v>6.7435204999999998</v>
+      </c>
+      <c r="D42" s="22">
+        <f>DATA!E55</f>
+        <v>6.4041905999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="22" t="str">
+        <f>DATA!B57</f>
+        <v>Hradec Králové</v>
+      </c>
+      <c r="B43" s="22">
+        <f>DATA!C57</f>
+        <v>5.7996951000000001</v>
+      </c>
+      <c r="C43" s="22">
+        <f>DATA!D57</f>
+        <v>6.0726842000000003</v>
+      </c>
+      <c r="D43" s="22">
+        <f>DATA!E57</f>
+        <v>5.5227012599999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="22" t="str">
+        <f>DATA!B58</f>
+        <v>Jičín</v>
+      </c>
+      <c r="B44" s="22">
+        <f>DATA!C58</f>
+        <v>4.0508993499999999</v>
+      </c>
+      <c r="C44" s="22">
+        <f>DATA!D58</f>
+        <v>3.8125348699999999</v>
+      </c>
+      <c r="D44" s="22">
+        <f>DATA!E58</f>
+        <v>4.3034482799999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="22" t="str">
+        <f>DATA!B59</f>
+        <v>Náchod</v>
+      </c>
+      <c r="B45" s="22">
+        <f>DATA!C59</f>
+        <v>4.9969488499999999</v>
+      </c>
+      <c r="C45" s="22">
+        <f>DATA!D59</f>
+        <v>5.3130565799999996</v>
+      </c>
+      <c r="D45" s="22">
+        <f>DATA!E59</f>
+        <v>4.6729759299999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="22" t="str">
+        <f>DATA!B60</f>
+        <v>Rychnov nad Kněžnou</v>
+      </c>
+      <c r="B46" s="22">
+        <f>DATA!C60</f>
+        <v>2.8797224400000001</v>
+      </c>
+      <c r="C46" s="22">
+        <f>DATA!D60</f>
+        <v>2.4061452700000001</v>
+      </c>
+      <c r="D46" s="22">
+        <f>DATA!E60</f>
+        <v>3.3763772099999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="str">
+        <f>DATA!B61</f>
+        <v>Trutnov</v>
+      </c>
+      <c r="B47" s="22">
+        <f>DATA!C61</f>
+        <v>5.7636998100000003</v>
+      </c>
+      <c r="C47" s="22">
+        <f>DATA!D61</f>
+        <v>5.5936016000000004</v>
+      </c>
+      <c r="D47" s="22">
+        <f>DATA!E61</f>
+        <v>5.94175977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="22" t="str">
+        <f>DATA!B63</f>
+        <v>Chrudim</v>
+      </c>
+      <c r="B48" s="22">
+        <f>DATA!C63</f>
+        <v>5.63853676</v>
+      </c>
+      <c r="C48" s="22">
+        <f>DATA!D63</f>
+        <v>5.9460992900000003</v>
+      </c>
+      <c r="D48" s="22">
+        <f>DATA!E63</f>
+        <v>5.3175425599999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="22" t="str">
+        <f>DATA!B64</f>
+        <v>Pardubice</v>
+      </c>
+      <c r="B49" s="22">
+        <f>DATA!C64</f>
+        <v>4.2628313999999996</v>
+      </c>
+      <c r="C49" s="22">
+        <f>DATA!D64</f>
+        <v>4.01754386</v>
+      </c>
+      <c r="D49" s="22">
+        <f>DATA!E64</f>
+        <v>4.51762219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="22" t="str">
+        <f>DATA!B65</f>
+        <v>Svitavy</v>
+      </c>
+      <c r="B50" s="22">
+        <f>DATA!C65</f>
+        <v>6.7649347300000002</v>
+      </c>
+      <c r="C50" s="22">
+        <f>DATA!D65</f>
+        <v>6.8821806700000003</v>
+      </c>
+      <c r="D50" s="22">
+        <f>DATA!E65</f>
+        <v>6.6420773100000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="22" t="str">
+        <f>DATA!B66</f>
+        <v>Ústí nad Orlicí</v>
+      </c>
+      <c r="B51" s="22">
+        <f>DATA!C66</f>
+        <v>4.59739947</v>
+      </c>
+      <c r="C51" s="22">
+        <f>DATA!D66</f>
+        <v>4.5582273300000002</v>
+      </c>
+      <c r="D51" s="22">
+        <f>DATA!E66</f>
+        <v>4.63814028</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="22" t="str">
+        <f>DATA!B68</f>
+        <v>Havlíčkův Brod</v>
+      </c>
+      <c r="B52" s="22">
+        <f>DATA!C68</f>
+        <v>5.7852164500000001</v>
+      </c>
+      <c r="C52" s="22">
+        <f>DATA!D68</f>
+        <v>5.3469463800000003</v>
+      </c>
+      <c r="D52" s="22">
+        <f>DATA!E68</f>
+        <v>6.2508242100000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="22" t="str">
+        <f>DATA!B69</f>
+        <v>Jihlava</v>
+      </c>
+      <c r="B53" s="22">
+        <f>DATA!C69</f>
+        <v>5.7377929300000003</v>
+      </c>
+      <c r="C53" s="22">
+        <f>DATA!D69</f>
+        <v>5.9414488700000003</v>
+      </c>
+      <c r="D53" s="22">
+        <f>DATA!E69</f>
+        <v>5.5232478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="22" t="str">
+        <f>DATA!B70</f>
+        <v>Pelhřimov</v>
+      </c>
+      <c r="B54" s="22">
+        <f>DATA!C70</f>
+        <v>4.0864315199999997</v>
+      </c>
+      <c r="C54" s="22">
+        <f>DATA!D70</f>
+        <v>3.9728841400000001</v>
+      </c>
+      <c r="D54" s="22">
+        <f>DATA!E70</f>
+        <v>4.2073037400000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="22" t="str">
+        <f>DATA!B71</f>
+        <v>Třebíč</v>
+      </c>
+      <c r="B55" s="22">
+        <f>DATA!C71</f>
+        <v>8.3203763500000001</v>
+      </c>
+      <c r="C55" s="22">
+        <f>DATA!D71</f>
+        <v>7.9668975499999997</v>
+      </c>
+      <c r="D55" s="22">
+        <f>DATA!E71</f>
+        <v>8.6916244299999992</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="22" t="str">
+        <f>DATA!B72</f>
+        <v>Žďár nad Sázavou</v>
+      </c>
+      <c r="B56" s="22">
+        <f>DATA!C72</f>
+        <v>6.2899069499999998</v>
+      </c>
+      <c r="C56" s="22">
+        <f>DATA!D72</f>
+        <v>6.3081058399999996</v>
+      </c>
+      <c r="D56" s="22">
+        <f>DATA!E72</f>
+        <v>6.27060116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="22" t="str">
+        <f>DATA!B74</f>
+        <v>Blansko</v>
+      </c>
+      <c r="B57" s="22">
+        <f>DATA!C74</f>
+        <v>5.5724803200000004</v>
+      </c>
+      <c r="C57" s="22">
+        <f>DATA!D74</f>
+        <v>5.0832942000000001</v>
+      </c>
+      <c r="D57" s="22">
+        <f>DATA!E74</f>
+        <v>6.0826970200000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="22" t="str">
+        <f>DATA!B75</f>
+        <v>Brno-město</v>
+      </c>
+      <c r="B58" s="22">
+        <f>DATA!C75</f>
+        <v>7.5900874399999996</v>
+      </c>
+      <c r="C58" s="22">
+        <f>DATA!D75</f>
+        <v>7.2247009999999996</v>
+      </c>
+      <c r="D58" s="22">
+        <f>DATA!E75</f>
+        <v>7.9563904399999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="22" t="str">
+        <f>DATA!B76</f>
+        <v>Brno-venkov</v>
+      </c>
+      <c r="B59" s="22">
+        <f>DATA!C76</f>
+        <v>5.2330779700000001</v>
+      </c>
+      <c r="C59" s="22">
+        <f>DATA!D76</f>
+        <v>4.9078460899999996</v>
+      </c>
+      <c r="D59" s="22">
+        <f>DATA!E76</f>
+        <v>5.5699557300000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="22" t="str">
+        <f>DATA!B77</f>
+        <v>Břeclav</v>
+      </c>
+      <c r="B60" s="22">
+        <f>DATA!C77</f>
+        <v>6.4615661500000003</v>
+      </c>
+      <c r="C60" s="22">
+        <f>DATA!D77</f>
+        <v>6.4957998000000003</v>
+      </c>
+      <c r="D60" s="22">
+        <f>DATA!E77</f>
+        <v>6.4259871000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="22" t="str">
+        <f>DATA!B78</f>
+        <v>Hodonín</v>
+      </c>
+      <c r="B61" s="22">
+        <f>DATA!C78</f>
+        <v>8.9768110199999995</v>
+      </c>
+      <c r="C61" s="22">
+        <f>DATA!D78</f>
+        <v>9.4090202200000004</v>
+      </c>
+      <c r="D61" s="22">
+        <f>DATA!E78</f>
+        <v>8.5198018799999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="22" t="str">
+        <f>DATA!B79</f>
+        <v>Vyškov</v>
+      </c>
+      <c r="B62" s="22">
+        <f>DATA!C79</f>
+        <v>4.7221026799999999</v>
+      </c>
+      <c r="C62" s="22">
+        <f>DATA!D79</f>
+        <v>4.6865391499999998</v>
+      </c>
+      <c r="D62" s="22">
+        <f>DATA!E79</f>
+        <v>4.7593238700000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="22" t="str">
+        <f>DATA!B80</f>
+        <v>Znojmo</v>
+      </c>
+      <c r="B63" s="22">
+        <f>DATA!C80</f>
+        <v>9.4085245900000007</v>
+      </c>
+      <c r="C63" s="22">
+        <f>DATA!D80</f>
+        <v>9.1599711599999996</v>
+      </c>
+      <c r="D63" s="22">
+        <f>DATA!E80</f>
+        <v>9.6664706799999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="22" t="str">
+        <f>DATA!B82</f>
+        <v>Jeseník</v>
+      </c>
+      <c r="B64" s="22">
+        <f>DATA!C82</f>
+        <v>9.4747954599999993</v>
+      </c>
+      <c r="C64" s="22">
+        <f>DATA!D82</f>
+        <v>10.0124151</v>
+      </c>
+      <c r="D64" s="22">
+        <f>DATA!E82</f>
+        <v>8.9010132500000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="22" t="str">
+        <f>DATA!B83</f>
+        <v>Olomouc</v>
+      </c>
+      <c r="B65" s="22">
+        <f>DATA!C83</f>
+        <v>6.9639217000000002</v>
+      </c>
+      <c r="C65" s="22">
+        <f>DATA!D83</f>
+        <v>7.2829348100000004</v>
+      </c>
+      <c r="D65" s="22">
+        <f>DATA!E83</f>
+        <v>6.6416007500000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="22" t="str">
+        <f>DATA!B84</f>
+        <v>Prostějov</v>
+      </c>
+      <c r="B66" s="22">
+        <f>DATA!C84</f>
+        <v>4.8846315200000001</v>
+      </c>
+      <c r="C66" s="22">
+        <f>DATA!D84</f>
+        <v>4.4641128500000002</v>
+      </c>
+      <c r="D66" s="22">
+        <f>DATA!E84</f>
+        <v>5.31466554</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="22" t="str">
+        <f>DATA!B85</f>
+        <v>Přerov</v>
+      </c>
+      <c r="B67" s="22">
+        <f>DATA!C85</f>
+        <v>8.1650630900000003</v>
+      </c>
+      <c r="C67" s="22">
+        <f>DATA!D85</f>
+        <v>8.1885019200000002</v>
+      </c>
+      <c r="D67" s="22">
+        <f>DATA!E85</f>
+        <v>8.1407807699999992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="22" t="str">
+        <f>DATA!B86</f>
+        <v>Šumperk</v>
+      </c>
+      <c r="B68" s="22">
+        <f>DATA!C86</f>
+        <v>6.8986856100000002</v>
+      </c>
+      <c r="C68" s="22">
+        <f>DATA!D86</f>
+        <v>7.2862001899999997</v>
+      </c>
+      <c r="D68" s="22">
+        <f>DATA!E86</f>
+        <v>6.4962914400000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="22" t="str">
+        <f>DATA!B88</f>
+        <v>Kroměříž</v>
+      </c>
+      <c r="B69" s="22">
+        <f>DATA!C88</f>
+        <v>7.1537635000000002</v>
+      </c>
+      <c r="C69" s="22">
+        <f>DATA!D88</f>
+        <v>7.2025633899999999</v>
+      </c>
+      <c r="D69" s="22">
+        <f>DATA!E88</f>
+        <v>7.1034957800000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="22" t="str">
+        <f>DATA!B89</f>
+        <v>Uherské Hradiště</v>
+      </c>
+      <c r="B70" s="22">
+        <f>DATA!C89</f>
+        <v>5.1995011199999999</v>
+      </c>
+      <c r="C70" s="22">
+        <f>DATA!D89</f>
+        <v>5.0012313199999996</v>
+      </c>
+      <c r="D70" s="22">
+        <f>DATA!E89</f>
+        <v>5.4064474699999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="22" t="str">
+        <f>DATA!B90</f>
+        <v>Vsetín</v>
+      </c>
+      <c r="B71" s="22">
+        <f>DATA!C90</f>
+        <v>7.0010209799999998</v>
+      </c>
+      <c r="C71" s="22">
+        <f>DATA!D90</f>
+        <v>7.4111197500000001</v>
+      </c>
+      <c r="D71" s="22">
+        <f>DATA!E90</f>
+        <v>6.5753715499999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="22" t="str">
+        <f>DATA!B91</f>
+        <v>Zlín</v>
+      </c>
+      <c r="B72" s="22">
+        <f>DATA!C91</f>
+        <v>5.1411155700000002</v>
+      </c>
+      <c r="C72" s="22">
+        <f>DATA!D91</f>
+        <v>4.9410634900000003</v>
+      </c>
+      <c r="D72" s="22">
+        <f>DATA!E91</f>
+        <v>5.3469543899999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="22" t="str">
+        <f>DATA!B93</f>
+        <v>Bruntál</v>
+      </c>
+      <c r="B73" s="22">
+        <f>DATA!C93</f>
+        <v>11.56360772</v>
+      </c>
+      <c r="C73" s="22">
+        <f>DATA!D93</f>
+        <v>11.82759048</v>
+      </c>
+      <c r="D73" s="22">
+        <f>DATA!E93</f>
+        <v>11.29058103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="22" t="str">
+        <f>DATA!B94</f>
+        <v>Frýdek-Místek</v>
+      </c>
+      <c r="B74" s="22">
+        <f>DATA!C94</f>
+        <v>5.6033186199999996</v>
+      </c>
+      <c r="C74" s="22">
+        <f>DATA!D94</f>
+        <v>5.5634690200000003</v>
+      </c>
+      <c r="D74" s="22">
+        <f>DATA!E94</f>
+        <v>5.6449191399999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="22" t="str">
+        <f>DATA!B95</f>
+        <v>Karviná</v>
+      </c>
+      <c r="B75" s="22">
+        <f>DATA!C95</f>
+        <v>10.964421700000001</v>
+      </c>
+      <c r="C75" s="22">
+        <f>DATA!D95</f>
+        <v>11.077341799999999</v>
+      </c>
+      <c r="D75" s="22">
+        <f>DATA!E95</f>
+        <v>10.84640093</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="22" t="str">
+        <f>DATA!B96</f>
+        <v>Nový Jičín</v>
+      </c>
+      <c r="B76" s="22">
+        <f>DATA!C96</f>
+        <v>5.24575689</v>
+      </c>
+      <c r="C76" s="22">
+        <f>DATA!D96</f>
+        <v>5.3708489200000002</v>
+      </c>
+      <c r="D76" s="22">
+        <f>DATA!E96</f>
+        <v>5.1162233400000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="22" t="str">
+        <f>DATA!B97</f>
+        <v>Opava</v>
+      </c>
+      <c r="B77" s="22">
+        <f>DATA!C97</f>
+        <v>7.0876212799999996</v>
+      </c>
+      <c r="C77" s="22">
+        <f>DATA!D97</f>
+        <v>7.6138760200000002</v>
+      </c>
+      <c r="D77" s="22">
+        <f>DATA!E97</f>
+        <v>6.5470301299999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="22" t="str">
+        <f>DATA!B98</f>
+        <v>Ostrava-město</v>
+      </c>
+      <c r="B78" s="22">
+        <f>DATA!C98</f>
+        <v>10.06230515</v>
+      </c>
+      <c r="C78" s="22">
+        <f>DATA!D98</f>
+        <v>10.270151630000001</v>
+      </c>
+      <c r="D78" s="22">
+        <f>DATA!E98</f>
+        <v>9.8514993799999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1572,33 +3002,33 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24" t="s">
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1626,8 +3056,8 @@
       <c r="K7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -5163,7 +6593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -5252,7 +6682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F133"/>
   <sheetViews>
